--- a/Crackpots/Crackpots - Plan.xlsx
+++ b/Crackpots/Crackpots - Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\rascripts\Crackpots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Crackpots\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Achievements!$A$1:$J$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Checklist!$A$1:$H$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Extras!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Achievements!$A$1:$J$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Checklist!$A$1:$H$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Extras!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="101">
   <si>
     <t>Description</t>
   </si>
@@ -160,15 +160,6 @@
     <t>Rookie Bug Hunter</t>
   </si>
   <si>
-    <t>Competent Bug Hunter</t>
-  </si>
-  <si>
-    <t>Proficient Bug Hunter</t>
-  </si>
-  <si>
-    <t>Seasoned Bug Hunter</t>
-  </si>
-  <si>
     <t>Expert Bug Hunter</t>
   </si>
   <si>
@@ -178,18 +169,6 @@
     <t>Get a 8x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
   </si>
   <si>
-    <t>Get a 2x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
-    <t>Get a 3x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
-    <t>Get a 4x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
-    <t>Get a 5x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
-  </si>
-  <si>
     <t>Get a 6x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
   </si>
   <si>
@@ -205,18 +184,6 @@
     <t>Wave Champion</t>
   </si>
   <si>
-    <t>Complete 10 Waves</t>
-  </si>
-  <si>
-    <t>Complete 20 Waves</t>
-  </si>
-  <si>
-    <t>Complete 30 Waves</t>
-  </si>
-  <si>
-    <t>Complete 40 Waves</t>
-  </si>
-  <si>
     <t>Black Bug Exterminator</t>
   </si>
   <si>
@@ -274,9 +241,6 @@
     <t>Two for One</t>
   </si>
   <si>
-    <t>Three for One</t>
-  </si>
-  <si>
     <t>Wave Master</t>
   </si>
   <si>
@@ -286,28 +250,79 @@
     <t>Highest Score</t>
   </si>
   <si>
-    <t>Starting from wave 1, highest score before the building is condemned.</t>
-  </si>
-  <si>
     <t>Highest Wave</t>
   </si>
   <si>
-    <t>Starting from wave 1, most number of waves completed before the building is condemned.</t>
-  </si>
-  <si>
-    <t>Wave 0</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>Game Over</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Wave Count</t>
+    <t>Deathless</t>
+  </si>
+  <si>
+    <t>Hobby Gardener</t>
+  </si>
+  <si>
+    <t>Head Gardener</t>
+  </si>
+  <si>
+    <t>Horticulturist</t>
+  </si>
+  <si>
+    <t>Groundskeeper</t>
+  </si>
+  <si>
+    <t>Complete 10 waves!</t>
+  </si>
+  <si>
+    <t>Complete 20 waves!</t>
+  </si>
+  <si>
+    <t>Complete 30 waves!</t>
+  </si>
+  <si>
+    <t>Complete 40 waves!</t>
+  </si>
+  <si>
+    <t>Complete 5 waves without losing a floor!</t>
+  </si>
+  <si>
+    <t>Complete 15 waves without losing a floor!</t>
+  </si>
+  <si>
+    <t>Complete 5 waves while on the last floor before a game over!</t>
+  </si>
+  <si>
+    <t>Get a 2x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
+  </si>
+  <si>
+    <t>Get a 3x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
+  </si>
+  <si>
+    <t>Get a 4x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
+  </si>
+  <si>
+    <t>Get a 5x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</t>
+  </si>
+  <si>
+    <t>Complete 10 waves without losing a floor!</t>
+  </si>
+  <si>
+    <t>Complete 20 waves without losing a floor!</t>
+  </si>
+  <si>
+    <t>Landscaper</t>
+  </si>
+  <si>
+    <t>Squash 2 bugs in a combo! (Combos end when all the pots have been reset)</t>
+  </si>
+  <si>
+    <t>Squash 3 bugs in a combo! (Combos end when all the pots have been reset)</t>
+  </si>
+  <si>
+    <t>Squash 5 bugs in a combo! (Combos end when all the pots have been reset)</t>
+  </si>
+  <si>
+    <t>Squash 7 bugs in a combo! (Combos end when all the pots have been reset)</t>
+  </si>
+  <si>
+    <t>Triple Play</t>
   </si>
   <si>
     <t>Seven in One Blow</t>
@@ -316,16 +331,25 @@
     <t>Five in a Row</t>
   </si>
   <si>
-    <t>Squash 2 bugs in a combo! (combos end when all the pots have been reset).</t>
-  </si>
-  <si>
-    <t>Squash 3 bugs in a combo! (combos end when all the pots have been reset).</t>
-  </si>
-  <si>
-    <t>Squash 5 bugs in a combo! (combos end when all the pots have been reset).</t>
-  </si>
-  <si>
-    <t>Squash 7 bugs in a combo! (combos end when all the pots have been reset).</t>
+    <t>Starting from wave 1, highest score before the building is condemned!</t>
+  </si>
+  <si>
+    <t>Starting from wave 1, most number of waves completed before the building is condemned!</t>
+  </si>
+  <si>
+    <t>0xH000016=0_0xH000017&gt;2</t>
+  </si>
+  <si>
+    <t>1=0</t>
+  </si>
+  <si>
+    <t>d0xH000043=46_0xH000043=54</t>
+  </si>
+  <si>
+    <t>b0xL00005c_b0xU00005c*10_b0xL00005b*100_b0xU00005b*1000_b0xL00005a*10000_b0xU00005a*100000</t>
+  </si>
+  <si>
+    <t>R:d0xH0017&lt;0xH0017_N:d0xH0073=0_C:0xH0073=1_N:d0xH0073=1_C:0xH0073=2_N:d0xH0073=2_C:0xH0073=3_N:d0xH0073=3_C:0xH0073=0_M:1=0</t>
   </si>
 </sst>
 </file>
@@ -453,6 +477,7 @@
       <sheetName val="Old Recovery"/>
       <sheetName val="Old Challenge"/>
       <sheetName val="Old Hole Count"/>
+      <sheetName val="Old Intersections"/>
       <sheetName val="Old Corners"/>
       <sheetName val="Old 3 Row"/>
       <sheetName val="Old 5 Row"/>
@@ -542,7 +567,9 @@
           <cell r="A10" t="str">
             <v>Totals</v>
           </cell>
-          <cell r="B10"/>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6"/>
@@ -573,6 +600,7 @@
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -842,10 +870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="A1:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,23 +925,23 @@
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9">
         <f>VLOOKUP(D2,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="6"/>
@@ -922,13 +950,13 @@
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
@@ -938,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="6"/>
@@ -947,13 +975,13 @@
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>13</v>
@@ -963,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
@@ -972,13 +1000,13 @@
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -988,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
@@ -997,7 +1025,7 @@
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
@@ -1006,23 +1034,23 @@
         <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="9">
         <f>VLOOKUP(D6,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
@@ -1038,7 +1066,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
@@ -1047,13 +1075,13 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B8" s="10">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
@@ -1063,132 +1091,116 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B9" s="10">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP(D9,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9">
         <f>VLOOKUP(D10,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="9">
-        <f>VLOOKUP(D11,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+        <v>84</v>
+      </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B12" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="9">
         <f>VLOOKUP(D12,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="9">
         <f>VLOOKUP(D13,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
@@ -1197,13 +1209,13 @@
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
@@ -1213,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
@@ -1222,23 +1234,23 @@
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B15" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15" s="9">
         <f>VLOOKUP(D15,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
@@ -1247,23 +1259,23 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B16" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="9">
         <f>VLOOKUP(D16,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
@@ -1272,23 +1284,23 @@
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="9">
         <f>VLOOKUP(D17,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
@@ -1297,87 +1309,80 @@
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B18" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="9">
         <f>VLOOKUP(D18,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E19" s="9">
         <f>VLOOKUP(D19,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B20" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="9">
         <f>VLOOKUP(D20,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1387,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
@@ -1396,13 +1401,13 @@
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>13</v>
@@ -1412,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
@@ -1421,23 +1426,23 @@
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B23" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="9">
         <f>VLOOKUP(D23,[1]Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
@@ -1445,24 +1450,50 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="9">
+        <f>VLOOKUP(D24,[1]Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="9">
+        <f>VLOOKUP(D25,[1]Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1564,46 +1595,46 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="8"/>
       <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="8"/>
       <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
       <c r="G36" s="8"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
-      <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1657,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
@@ -1666,20 +1697,22 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="8"/>
       <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -1688,31 +1721,32 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="12"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
       <c r="G45" s="8"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="8"/>
       <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -1730,13 +1764,16 @@
       <c r="H48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="8"/>
       <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,70 +1785,64 @@
       <c r="H50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
-      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
       <c r="G51" s="8"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
       <c r="G52" s="8"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="8"/>
       <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="8"/>
       <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
-      <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
       <c r="G55" s="8"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
-      <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
       <c r="G56" s="8"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1850,21 +1881,35 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="G60" s="1"/>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="G61" s="1"/>
+    <row r="60" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="G62" s="1"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -1926,54 +1971,54 @@
       <c r="B74" s="2"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="6"/>
       <c r="G75" s="1"/>
-      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="F77" s="7"/>
+      <c r="C77" s="6"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="6"/>
-      <c r="F78" s="6"/>
       <c r="G78" s="1"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="6"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="1"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
+      <c r="C81" s="6"/>
       <c r="G81" s="1"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2014,22 +2059,32 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="I94" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J92">
+  <autoFilter ref="A1:J94">
     <sortState ref="A2:K87">
       <sortCondition ref="E1:E87"/>
     </sortState>
@@ -2047,7 +2102,7 @@
           <x14:formula1>
             <xm:f>Stats!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D92</xm:sqref>
+          <xm:sqref>D2:D94</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2058,10 +2113,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,34 +2166,76 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="10">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9">
+        <f>VLOOKUP(D2,[1]Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8"/>
       <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="10">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP(D3,[1]Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9">
+        <f>VLOOKUP(D4,[1]Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2157,7 +2254,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2167,7 +2264,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2187,7 +2284,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="6"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2197,7 +2294,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2277,7 +2374,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="6"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2287,7 +2384,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="6"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2307,7 +2404,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="6"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2317,7 +2414,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="6"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2377,7 +2474,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="6"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2387,7 +2484,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="6"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2407,7 +2504,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="6"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2417,7 +2514,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="6"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,9 +2537,39 @@
       <c r="H34" s="9"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:H33"/>
+  <autoFilter ref="A1:H36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2452,7 +2579,7 @@
           <x14:formula1>
             <xm:f>Stats!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D34</xm:sqref>
+          <xm:sqref>D2:D37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2464,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,54 +2635,54 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G2" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G3" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2596,16 +2723,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="9" customWidth="1"/>
     <col min="4" max="8" width="11.7109375" customWidth="1"/>
   </cols>
@@ -2643,14 +2770,26 @@
       </c>
       <c r="B2" s="9" t="str">
         <f>Achievements!F2</f>
-        <v>Complete 10 Waves</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+        <v>Complete 10 waves!</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="9" t="str">
         <f>IF(COUNTIF(C2:G2,"X")=5,"YES","NO")</f>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2660,15 +2799,26 @@
       </c>
       <c r="B3" s="9" t="str">
         <f>Achievements!F3</f>
-        <v>Complete 20 Waves</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+        <v>Complete 20 waves!</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" ref="H3:H16" si="0">IF(COUNTIF(C3:G3,"X")=5,"YES","NO")</f>
-        <v>NO</v>
+        <f t="shared" ref="H3:H4" si="0">IF(COUNTIF(C3:G3,"X")=5,"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,15 +2828,26 @@
       </c>
       <c r="B4" s="9" t="str">
         <f>Achievements!F4</f>
-        <v>Complete 30 Waves</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+        <v>Complete 30 waves!</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,15 +2857,26 @@
       </c>
       <c r="B5" s="9" t="str">
         <f>Achievements!F5</f>
-        <v>Complete 40 Waves</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+        <v>Complete 40 waves!</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" ref="H5:H25" si="1">IF(COUNTIF(C5:G5,"X")=5,"YES","NO")</f>
+        <v>YES</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2714,340 +2886,578 @@
       </c>
       <c r="B6" s="9" t="str">
         <f>Achievements!F6</f>
-        <v>Get a 2x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+        <v>Get a 2x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f>Achievements!C7</f>
-        <v>Competent Bug Hunter</v>
+        <v>Expert Bug Hunter</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>Achievements!F7</f>
-        <v>Get a 3x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+        <v>Get a 3x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f>Achievements!C8</f>
-        <v>Proficient Bug Hunter</v>
+        <v>Master Bug Hunter</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>Achievements!F8</f>
-        <v>Get a 4x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>Get a 4x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f>Achievements!C9</f>
-        <v>Seasoned Bug Hunter</v>
+        <v>Champion Bug Hunter</v>
       </c>
       <c r="B9" s="9" t="str">
         <f>Achievements!F9</f>
-        <v>Get a 5x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+        <v>Get a 5x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f>Achievements!C10</f>
-        <v>Expert Bug Hunter</v>
+        <v>Hobby Gardener</v>
       </c>
       <c r="B10" s="9" t="str">
         <f>Achievements!F10</f>
-        <v>Get a 6x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>Complete 5 waves without losing a floor!</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f>Achievements!C11</f>
-        <v>Master Bug Hunter</v>
+        <v>Landscaper</v>
       </c>
       <c r="B11" s="9" t="str">
         <f>Achievements!F11</f>
-        <v>Get a 7x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+        <v>Complete 10 waves without losing a floor!</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f>Achievements!C12</f>
-        <v>Champion Bug Hunter</v>
+        <v>Head Gardener</v>
       </c>
       <c r="B12" s="9" t="str">
         <f>Achievements!F12</f>
-        <v>Get a 8x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+        <v>Complete 15 waves without losing a floor!</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f>Achievements!C13</f>
-        <v>Black Bug Exterminator</v>
+        <v>Horticulturist</v>
       </c>
       <c r="B13" s="9" t="str">
         <f>Achievements!F13</f>
-        <v>Survive a wave of black bugs without losing a bonus bug!</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+        <v>Complete 20 waves without losing a floor!</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f>Achievements!C14</f>
-        <v>Blue Bug Exterminator</v>
+        <v>Groundskeeper</v>
       </c>
       <c r="B14" s="9" t="str">
         <f>Achievements!F14</f>
-        <v>Survive a wave of blue bugs without losing a bonus bug!</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+        <v>Complete 5 waves while on the last floor before a game over!</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f>Achievements!C15</f>
-        <v>Red Bug Exterminator</v>
+        <v>Black Bug Exterminator</v>
       </c>
       <c r="B15" s="9" t="str">
         <f>Achievements!F15</f>
-        <v>Survive a wave of red bugs without losing a bonus bug!</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+        <v>Survive a wave of black bugs without losing a bonus bug!</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f>Achievements!C16</f>
-        <v>Green Bug Exterminator</v>
+        <v>Blue Bug Exterminator</v>
       </c>
       <c r="B16" s="9" t="str">
         <f>Achievements!F16</f>
-        <v>Survive a wave of green bugs without losing a bonus bug!</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+        <v>Survive a wave of blue bugs without losing a bonus bug!</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f>Achievements!C17</f>
-        <v>Two for One</v>
+        <v>Red Bug Exterminator</v>
       </c>
       <c r="B17" s="9" t="str">
         <f>Achievements!F17</f>
-        <v>Squash 2 bugs in a combo! (combos end when all the pots have been reset).</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+        <v>Survive a wave of red bugs without losing a bonus bug!</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="9" t="str">
-        <f t="shared" ref="H17:H23" si="1">IF(COUNTIF(C17:G17,"X")=5,"YES","NO")</f>
-        <v>NO</v>
+        <f t="shared" si="1"/>
+        <v>YES</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f>Achievements!C18</f>
-        <v>Three for One</v>
+        <v>Green Bug Exterminator</v>
       </c>
       <c r="B18" s="9" t="str">
         <f>Achievements!F18</f>
-        <v>Squash 3 bugs in a combo! (combos end when all the pots have been reset).</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+        <v>Survive a wave of green bugs without losing a bonus bug!</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H18" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f>Achievements!C19</f>
-        <v>Five in a Row</v>
+        <v>Two for One</v>
       </c>
       <c r="B19" s="9" t="str">
         <f>Achievements!F19</f>
-        <v>Squash 5 bugs in a combo! (combos end when all the pots have been reset).</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+        <v>Squash 2 bugs in a combo! (Combos end when all the pots have been reset)</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f>Achievements!C20</f>
-        <v>Seven in One Blow</v>
+        <v>Triple Play</v>
       </c>
       <c r="B20" s="9" t="str">
         <f>Achievements!F20</f>
-        <v>Squash 7 bugs in a combo! (combos end when all the pots have been reset).</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+        <v>Squash 3 bugs in a combo! (Combos end when all the pots have been reset)</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H20" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f>Achievements!C21</f>
-        <v>Pest Control</v>
+        <v>Five in a Row</v>
       </c>
       <c r="B21" s="9" t="str">
         <f>Achievements!F21</f>
-        <v>Score 25,000 points without losing the game!</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+        <v>Squash 5 bugs in a combo! (Combos end when all the pots have been reset)</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H21" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f>Achievements!C22</f>
-        <v>Rooftop Defender</v>
+        <v>Seven in One Blow</v>
       </c>
       <c r="B22" s="9" t="str">
         <f>Achievements!F22</f>
-        <v>Score 50,000 points without losing the game!</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+        <v>Squash 7 bugs in a combo! (Combos end when all the pots have been reset)</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H22" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f>Achievements!C23</f>
-        <v>Activision Crackpot</v>
+        <v>Pest Control</v>
       </c>
       <c r="B23" s="9" t="str">
         <f>Achievements!F23</f>
-        <v>Score 75,000 points without losing the game!</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+        <v>Score 25,000 points without losing the game!</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="H23" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>NO</v>
+        <v>YES</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="9" t="str">
+        <f>Achievements!C24</f>
+        <v>Rooftop Defender</v>
+      </c>
+      <c r="B24" s="9" t="str">
+        <f>Achievements!F24</f>
+        <v>Score 50,000 points without losing the game!</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9" t="str">
+        <f>Achievements!C25</f>
+        <v>Activision Crackpot</v>
+      </c>
+      <c r="B25" s="9" t="str">
+        <f>Achievements!F25</f>
+        <v>Score 75,000 points without losing the game!</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -3073,6 +3483,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3081,6 +3492,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,7 +3541,6 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3146,6 +3557,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,7 +3590,6 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3195,6 +3606,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3267,14 +3679,24 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -3393,8 +3815,14 @@
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
     </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H93"/>
+  <autoFilter ref="A1:H95"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3404,8 +3832,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A14:A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,145 +3854,145 @@
     <row r="3" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f ca="1">"[b]"&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;" ("&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;")[/b] - "&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))</f>
-        <v>[b]Wave Novice (5)[/b] - Complete 10 Waves</v>
+        <v>[b]Wave Novice (2)[/b] - Complete 10 waves!</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">"[b]"&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;" ("&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;")[/b] - "&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))</f>
-        <v>[b]Wave Expert (5)[/b] - Complete 20 Waves</v>
+        <v>[b]Wave Expert (5)[/b] - Complete 20 waves!</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Wave Master (10)[/b] - Complete 30 Waves</v>
+        <v>[b]Wave Master (10)[/b] - Complete 30 waves!</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Wave Champion (25)[/b] - Complete 40 Waves</v>
+        <v>[b]Wave Champion (25)[/b] - Complete 40 waves!</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Rookie Bug Hunter (5)[/b] - Get a 2x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Rookie Bug Hunter (3)[/b] - Get a 2x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Competent Bug Hunter (5)[/b] - Get a 3x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Expert Bug Hunter (5)[/b] - Get a 3x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Proficient Bug Hunter (5)[/b] - Get a 4x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Master Bug Hunter (5)[/b] - Get a 4x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Seasoned Bug Hunter (5)[/b] - Get a 5x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Champion Bug Hunter (10)[/b] - Get a 5x multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Expert Bug Hunter (10)[/b] - Get a 6x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Hobby Gardener (3)[/b] - Complete 5 waves without losing a floor!</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Master Bug Hunter (10)[/b] - Get a 7x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Landscaper (5)[/b] - Complete 10 waves without losing a floor!</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Champion Bug Hunter (25)[/b] - Get a 8x Multiplier! (Beat all four bug waves to increase a mutliplier, losing a floor will decrease a mutliplier)</v>
+        <v>[b]Head Gardener (10)[/b] - Complete 15 waves without losing a floor!</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Black Bug Exterminator (5)[/b] - Survive a wave of black bugs without losing a bonus bug!</v>
+        <v>[b]Horticulturist (25)[/b] - Complete 20 waves without losing a floor!</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Blue Bug Exterminator (5)[/b] - Survive a wave of blue bugs without losing a bonus bug!</v>
+        <v>[b]Groundskeeper (5)[/b] - Complete 5 waves while on the last floor before a game over!</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Red Bug Exterminator (10)[/b] - Survive a wave of red bugs without losing a bonus bug!</v>
+        <v>[b]Black Bug Exterminator (2)[/b] - Survive a wave of black bugs without losing a bonus bug!</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Green Bug Exterminator (10)[/b] - Survive a wave of green bugs without losing a bonus bug!</v>
+        <v>[b]Blue Bug Exterminator (5)[/b] - Survive a wave of blue bugs without losing a bonus bug!</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Two for One (2)[/b] - Squash 2 bugs in a combo! (combos end when all the pots have been reset).</v>
+        <v>[b]Red Bug Exterminator (10)[/b] - Survive a wave of red bugs without losing a bonus bug!</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Three for One (3)[/b] - Squash 3 bugs in a combo! (combos end when all the pots have been reset).</v>
+        <v>[b]Green Bug Exterminator (10)[/b] - Survive a wave of green bugs without losing a bonus bug!</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Five in a Row (5)[/b] - Squash 5 bugs in a combo! (combos end when all the pots have been reset).</v>
+        <v>[b]Two for One (2)[/b] - Squash 2 bugs in a combo! (Combos end when all the pots have been reset)</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Seven in One Blow (10)[/b] - Squash 7 bugs in a combo! (combos end when all the pots have been reset).</v>
+        <v>[b]Triple Play (3)[/b] - Squash 3 bugs in a combo! (Combos end when all the pots have been reset)</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Pest Control (5)[/b] - Score 25,000 points without losing the game!</v>
+        <v>[b]Five in a Row (5)[/b] - Squash 5 bugs in a combo! (Combos end when all the pots have been reset)</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Rooftop Defender (10)[/b] - Score 50,000 points without losing the game!</v>
+        <v>[b]Seven in One Blow (10)[/b] - Squash 7 bugs in a combo! (Combos end when all the pots have been reset)</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[b]Activision Crackpot (25)[/b] - Score 75,000 points without losing the game!</v>
+        <v>[b]Pest Control (5)[/b] - Score 25,000 points without losing the game!</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">[b] ()[/b] - </v>
+        <v>[b]Rooftop Defender (10)[/b] - Score 50,000 points without losing the game!</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">[b] ()[/b] - </v>
+        <v>[b]Activision Crackpot (25)[/b] - Score 75,000 points without losing the game!</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3870,13 +4298,13 @@
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="str">
         <f ca="1">"Title: "&amp;INDIRECT("Leaderboards!A"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Description: "&amp;INDIRECT("Leaderboards!B"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Type: "&amp;INDIRECT("Leaderboards!F"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Lower Is Better: "&amp;INDIRECT("Leaderboards!G"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Start: "&amp;INDIRECT("Leaderboards!C"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Cancel: "&amp;INDIRECT("Leaderboards!D"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Submit: "&amp;INDIRECT("Leaderboards!E"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Value: "&amp;INDIRECT("Leaderboards!H"&amp;(ROW()-76))&amp;CHAR(13)&amp;CHAR(13)</f>
-        <v>Title: Highest Score_x000D_Description: Starting from wave 1, highest score before the building is condemned._x000D_Type: Score_x000D_Lower Is Better: TRUE_x000D_Start: Wave 0_x000D_Cancel: Never_x000D_Submit: Game Over_x000D_Value: Score_x000D__x000D_</v>
+        <v>Title: Highest Score_x000D_Description: Starting from wave 1, highest score before the building is condemned!_x000D_Type: Score_x000D_Lower Is Better: FALSE_x000D_Start: 0xH000016=0_0xH000017&gt;2_x000D_Cancel: 1=0_x000D_Submit: d0xH000043=46_0xH000043=54_x000D_Value: b0xL00005c_b0xU00005c*10_b0xL00005b*100_b0xU00005b*1000_b0xL00005a*10000_b0xU00005a*100000_x000D__x000D_</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="str">
         <f t="shared" ref="A79:A90" ca="1" si="2">"Title: "&amp;INDIRECT("Leaderboards!A"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Description: "&amp;INDIRECT("Leaderboards!B"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Type: "&amp;INDIRECT("Leaderboards!F"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Lower Is Better: "&amp;INDIRECT("Leaderboards!G"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Start: "&amp;INDIRECT("Leaderboards!C"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Cancel: "&amp;INDIRECT("Leaderboards!D"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Submit: "&amp;INDIRECT("Leaderboards!E"&amp;(ROW()-76))&amp;CHAR(13)&amp;"Value: "&amp;INDIRECT("Leaderboards!H"&amp;(ROW()-76))&amp;CHAR(13)&amp;CHAR(13)</f>
-        <v>Title: Highest Wave_x000D_Description: Starting from wave 1, most number of waves completed before the building is condemned._x000D_Type: Time_x000D_Lower Is Better: TRUE_x000D_Start: Wave 0_x000D_Cancel: Never_x000D_Submit: Game Over_x000D_Value: Wave Count_x000D__x000D_</v>
+        <v>Title: Highest Wave_x000D_Description: Starting from wave 1, most number of waves completed before the building is condemned!_x000D_Type: Score_x000D_Lower Is Better: FALSE_x000D_Start: 0xH000016=0_0xH000017&gt;2_x000D_Cancel: 1=0_x000D_Submit: d0xH000043=46_0xH000043=54_x000D_Value: R:d0xH0017&lt;0xH0017_N:d0xH0073=0_C:0xH0073=1_N:d0xH0073=1_C:0xH0073=2_N:d0xH0073=2_C:0xH0073=3_N:d0xH0073=3_C:0xH0073=0_M:1=0_x000D__x000D_</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -3981,7 +4409,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4">
         <f>COUNTIF(Achievements!A:A,E2)</f>
@@ -4029,7 +4457,7 @@
       </c>
       <c r="G2" s="9">
         <f>SUMIF(Achievements!A:A,E2,Achievements!E:E)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,15 +4472,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4">
         <f>COUNTIF(Achievements!A:A,E3)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" s="9">
         <f>SUMIF(Achievements!A:A,E3,Achievements!E:E)</f>
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4064,10 +4492,10 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Achievements!D:D,A4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4">
         <f>COUNTIF(Achievements!A:A,E4)</f>
@@ -4075,7 +4503,7 @@
       </c>
       <c r="G4" s="9">
         <f>SUMIF(Achievements!A:A,E4,Achievements!E:E)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4087,18 +4515,18 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Achievements!D:D,A5)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F5" s="4">
         <f>COUNTIF(Achievements!A:A,E5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9">
         <f>SUMIF(Achievements!A:A,E5,Achievements!E:E)</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,16 +4540,16 @@
         <f>COUNTIF(Achievements!D:D,A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <f>SUM(F2:F5)</f>
-        <v>22</v>
-      </c>
-      <c r="G6" s="3">
-        <f>SUM(G2:G5)</f>
-        <v>200</v>
+      <c r="E6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4">
+        <f>COUNTIF(Achievements!A:A,E6)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUMIF(Achievements!A:A,E6,Achievements!E:E)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4133,7 +4561,18 @@
       </c>
       <c r="C7">
         <f>COUNTIF(Achievements!D:D,A7)</f>
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SUM(F3:F6)</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <f>SUM(G2:G6)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,7 +4584,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Achievements!D:D,A8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4167,7 +4606,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3">
         <f>SUM(C2:C9)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
